--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.09927010511665435</v>
+        <v>0.09927010511665441</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.06454332386573067</v>
+        <v>0.06454332386573068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08788250816711474</v>
+        <v>0.08788250816711475</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06672070460476835</v>
+        <v>0.06811208129370419</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03432095885641916</v>
+        <v>0.03620077037004741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06679950311980935</v>
+        <v>0.06423370692650236</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.146536212574404</v>
+        <v>0.1430283105301753</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1120774177690557</v>
+        <v>0.1076141659819515</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1232989771566297</v>
+        <v>0.1197193153252178</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1125263488363824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08865259536338131</v>
+        <v>0.0886525953633813</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05137801311418154</v>
+        <v>0.05420876223258944</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07316907905591957</v>
+        <v>0.07700266642787959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06843940526649592</v>
+        <v>0.06826459260757638</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1093668990458875</v>
+        <v>0.1077423065947826</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1588193407329773</v>
+        <v>0.1619367249329433</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1168010189669326</v>
+        <v>0.1178372719257832</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.03117487604223527</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06487457509844194</v>
+        <v>0.06487457509844193</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05353610268701328</v>
+        <v>0.05489516162672983</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01089837599861168</v>
+        <v>0.01045182926499642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0423262328944508</v>
+        <v>0.04578226457145318</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1179092129992042</v>
+        <v>0.1204382779269282</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07714716508258949</v>
+        <v>0.07750754723244407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08886714243043344</v>
+        <v>0.0909851322584201</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.12468373945078</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07030251869071825</v>
+        <v>0.07030251869071824</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.102914760208777</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09391407082410834</v>
+        <v>0.09735716067965336</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04427121257833962</v>
+        <v>0.04237095122130095</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08030797205876143</v>
+        <v>0.08189707470243296</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1593531661588385</v>
+        <v>0.1615762427468916</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1086548062240644</v>
+        <v>0.1104697381151602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1274333355477752</v>
+        <v>0.1320276962517651</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09654572999107143</v>
+        <v>0.09654572999107146</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.07098942938712387</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08262968922257473</v>
+        <v>0.08144621024209657</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05649558865560381</v>
+        <v>0.05495262141314547</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07564053034771717</v>
+        <v>0.07658115204466309</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1137248957514352</v>
+        <v>0.1142523877741546</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09129741785422876</v>
+        <v>0.09152901146971104</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1002592540849506</v>
+        <v>0.100230720776468</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23510</v>
+        <v>24000</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5900</v>
+        <v>6224</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35022</v>
+        <v>33676</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51633</v>
+        <v>50397</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19268</v>
+        <v>18501</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>64643</v>
+        <v>62766</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25612</v>
+        <v>27024</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16382</v>
+        <v>17240</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49440</v>
+        <v>49314</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54520</v>
+        <v>53710</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>35558</v>
+        <v>36256</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84376</v>
+        <v>85125</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19295</v>
+        <v>19785</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2184</v>
+        <v>2095</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23738</v>
+        <v>25677</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42497</v>
+        <v>43408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15462</v>
+        <v>15534</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49841</v>
+        <v>51028</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43324</v>
+        <v>44912</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13632</v>
+        <v>13047</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>61777</v>
+        <v>62999</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>73512</v>
+        <v>74537</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33458</v>
+        <v>34017</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>98027</v>
+        <v>101562</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>138206</v>
+        <v>136227</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>51081</v>
+        <v>49686</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>194908</v>
+        <v>197331</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>190216</v>
+        <v>191098</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>82548</v>
+        <v>82757</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>258344</v>
+        <v>258271</v>
       </c>
     </row>
     <row r="24">
